--- a/DominiosEREI_10112025.xlsx
+++ b/DominiosEREI_10112025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anipt-my.sharepoint.com/personal/ana_peixoto_ani_pt/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliane.gabriel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="8_{FE1FAC3A-E617-412C-B5E8-8A07863C91E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F67C82B7-2C6D-4A9A-93B8-D19D749946D9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCAE7DF-5AA6-4FF2-A7FF-FC9A478BD217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{7423D984-A206-465B-9810-D18CB00D466F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7423D984-A206-465B-9810-D18CB00D466F}"/>
   </bookViews>
   <sheets>
     <sheet name="EREINorte" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
   <si>
-    <t xml:space="preserve">Domínios </t>
-  </si>
-  <si>
     <t>Descrição</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
     <t>Com o Domínio Prioritário “Recursos e Tecnologias do Mar”, a RAM pretende reunir condições para consolidar e expandir a Cadeia de Valor da Economia Azul. A aposta da RAM passa por políticas que contribuam para preservar a biodiversidade marinha (garantir a sua exploração sustentável) e aumentar o valor acrescentado da pesca. Passa também pela diversificação da base económica, por via do aumento da escala de produção de pescado em aquacultura, com impacto ambiental zero, da inovação no setor de transformação e conservação do pescado e da exploração biotecnológica de organismos marinhos vivos não tradicionais e o desenvolvimento de produtos e serviços de elevado grau tecnológico para mercados setoriais diversos. Passa ainda pela modernização dos portos na perspetiva de smart ports e pela requalificação da indústria naval. Finalmente, inclui a transformação da RAM num observatório de referência do estado ambiental do Oceano Atlântico e do mar profundo e o mapeamento e caracterização dos recursos minerais marinhos.</t>
   </si>
   <si>
-    <t>Tem por visão uma estratégia de intervenção transversal a todos os restantes domínios, visando reter na RAM uma parte significativa do impacto económico e social do processo de transformação digital em curso, nomeadamente através da criação de mais valor acrescentado, de mais emprego qualificado, mais capacidade de I&amp;IDT, de mais empresas de base tecnológica, assim como reduzir a dependência tecnológica face ao exterior. De realçar que o atual contexto pandémico veio acelerar o processo de transformação digital, nomeadamente por via do desenvolvimento de novos modelos de negócio, assentes na utilização combinada de tecnologias digitais, algumas já maturas e outras que estão a emergir em resultado de investimentos recentes em I&amp;D.</t>
-  </si>
-  <si>
     <t>Tem por visão a transição para um modelo mais sustentável, viável e equitativo em termos socioeconómicos, no qual a utilização dos recursos (naturais, técnicos e tecnológicos, energéticos e humanos) seja otimizada e a aplicação dos ativos existentes e potenciais (materiais, componentes, produtos, serviços, redes, sistemas e conhecimento) sejam geridos de modo a preservar o seu valor, utilidade, eficiência e segurança pelo maior período de tempo possível, alinhando-se com o quadro de referência estratégico a nível nacional e europeu. A concretização desta visão deverá assumir uma abordagem proativa visando a Transição Energética, as Alterações Climáticas e a Sustentabilidade, exigindo um conjunto de alterações no modelo de especialização produtiva que potencie condições adequadas para a circularidade, com incidência na boa gestão dos recursos naturais, na modernização e eficiência produtiva, na sustentabilidade dos materiais e do território e na eficiência e segurança energética.</t>
   </si>
   <si>
@@ -314,6 +308,12 @@
   </si>
   <si>
     <t>Desenvolvimento de fileiras associadas às tecnologias facilitadoras (nomeadamente, engenharia de materiais, nanotecnologias, biotecnologia e transformação biológica, inteligência artificial, nano e microeletrónica, fotónica, mecatrónica, engenharia de sistemas, etc.), conjugando a existência de capacidades e infraestruturas científicas e tecnológicas, de bases empresariais consolidadas (fabricação de máquinas e equipamentos, engenharia e consultoria industrial, informática industrial, etc.) e de setores utilizadores relevantes (indústria transformadora, indústria extrativa, construção, água, energia, setor primário, etc.), no contexto de processos de transformação digital e energético-ambiental e de novos modelos de produção, de gestão, de negócio e de trabalho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominios </t>
+  </si>
+  <si>
+    <t>Tem por visão uma estratégia de intervenção transversal a todos os restantes Dominios, visando reter na RAM uma parte significativa do impacto económico e social do processo de transformação digital em curso, nomeadamente através da criação de mais valor acrescentado, de mais emprego qualificado, mais capacidade de I&amp;IDT, de mais empresas de base tecnológica, assim como reduzir a dependência tecnológica face ao exterior. De realçar que o atual contexto pandémico veio acelerar o processo de transformação digital, nomeadamente por via do desenvolvimento de novos modelos de negócio, assentes na utilização combinada de tecnologias digitais, algumas já maturas e outras que estão a emergir em resultado de investimentos recentes em I&amp;D.</t>
   </si>
 </sst>
 </file>
@@ -414,12 +414,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -737,9 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951EF1C2-393F-4308-ABFA-A3D66017A001}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -749,74 +743,74 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="120.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="174" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="232" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -840,58 +834,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -914,60 +908,60 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -991,74 +985,74 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1070,9 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785583A7-314C-4ED3-B7C3-58D8606FC8A1}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1082,66 +1074,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1153,9 +1145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F79582-C503-40AA-AD03-26968E632DFE}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1164,60 +1154,60 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1241,58 +1231,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="261" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
